--- a/Mips_指令格式.xlsx
+++ b/Mips_指令格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_VerilogHDL\My_CPU\My_CPU_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_VerilogHDL\My_CPU\My_CPU_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68B4E04-7ADE-4B2A-BFF1-914DC8D912E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB6787-35CC-4D0C-8F74-BD1B6324FDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令格式" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>从协处理器0的寄存器存值</t>
+    <t>向协处理器0的寄存器存值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +815,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,6 +864,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -887,9 +894,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -934,6 +938,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1276,121 +1283,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="5" customWidth="1"/>
-    <col min="3" max="5" width="14.640625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="12.640625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="16"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1405,530 +1412,530 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="F10 A3:A26"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="10.640625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="19.78515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="103.92578125" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="13.640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.78515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="103.92578125" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="12" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="12" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="14" t="s">
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1936,7 +1943,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 A11:B17 A3:B3 A27 E1 A4:B10 B25:B26 B18:B24 C18 D21:D26" numberStoredAsText="1"/>
+    <ignoredError sqref="A1 A12:B17 A3:B3 A27 E1 A4:B10 B25:B26 B18:B24 C18 D21:D26 A11:B11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1945,791 +1952,791 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3E7441-DE23-4CD8-AB29-7423F6E5C2F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A4 A3:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.35546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="10.640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="50.640625" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="19.35546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="50.640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="12">
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="11">
         <v>100001</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="11">
         <v>100010</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="11">
         <v>100011</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="11">
         <v>101010</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="11">
         <v>101011</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="F19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="F21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="12" t="s">
+      <c r="F26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="12" t="s">
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="C28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2738,7 +2745,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:G13 B15:G23 B14:F14 B25:G30 B24:F24" numberStoredAsText="1"/>
+    <ignoredError sqref="B3:G13 B15:F17 B14:F14 B25:G30 B24:F24 B19:F23 B18:F18 G19:G23 G15:G17 G14 G18 G24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2748,65 +2755,65 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="D6 A3:A4"/>
+      <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="50.640625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2824,122 +2831,122 @@
   <dimension ref="A3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" activeCellId="1" sqref="H7 A4:A7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="19.75" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="22.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="25.2109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="12.640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="30.640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="16">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="16">
         <v>11000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="16" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="16" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2947,7 +2954,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4" numberStoredAsText="1"/>
+    <ignoredError sqref="B4 F6:F8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Mips_指令格式.xlsx
+++ b/Mips_指令格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_VerilogHDL\My_CPU\My_CPU_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\mips2\mips2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AB6787-35CC-4D0C-8F74-BD1B6324FDC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F0111-5F7E-4A25-AB5F-5DD986D3CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25965" yWindow="915" windowWidth="24720" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令格式" sheetId="1" r:id="rId1"/>
@@ -1287,16 +1287,16 @@
       <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="14.640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -1376,10 +1376,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -1411,21 +1411,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.78515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="103.92578125" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="103.875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>94</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>95</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>98</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>102</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>103</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>104</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>106</v>
       </c>
@@ -1952,21 +1952,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3E7441-DE23-4CD8-AB29-7423F6E5C2F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.35546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.640625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>122</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>126</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>132</v>
       </c>
@@ -2745,7 +2745,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B3:G13 B15:F17 B14:F14 B25:G30 B24:F24 B19:F23 B18:F18 G19:G23 G15:G17 G14 G18 G24" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:G13 B15:F17 B14:F14 B25:G30 B24:F24 B19:F23 B18:F18 G19:G23 G15:G17 G14 G18 G24 B3:G3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2758,16 +2758,16 @@
       <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
@@ -2828,23 +2828,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA973394-882F-4B51-ADCE-3429DA3CC88A}">
-  <dimension ref="A3:H7"/>
+  <dimension ref="A3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.75" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="12.640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="30.640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="30.640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="12.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>189</v>
       </c>
@@ -2878,61 +2878,35 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="16" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="16" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
         <v>193</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="D7" s="16" t="s">
         <v>39</v>
@@ -2947,6 +2921,32 @@
         <v>195</v>
       </c>
       <c r="H7" s="16" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4 F6:F8" numberStoredAsText="1"/>
+    <ignoredError sqref="B4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Mips_指令格式.xlsx
+++ b/Mips_指令格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\mips2\mips2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_VerilogHDL\My_CPU\My_CPU_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10F0111-5F7E-4A25-AB5F-5DD986D3CF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CCC3E-74A2-40D9-A508-38DBE897D8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25965" yWindow="915" windowWidth="24720" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令格式" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dnsa Assad</author>
+  </authors>
+  <commentList>
+    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{DFD18E23-E629-4765-8705-294D7E4A8CF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>I的译码形式R的处理方式</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="207">
   <si>
     <t>I-TY</t>
   </si>
@@ -619,26 +644,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RD=RT&lt;&lt;RS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RD=RT&lt;&lt;SA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RD=RT&gt;&gt;&gt;RS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RD=RT&gt;&gt;&gt;SA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RD=RT&gt;&gt;RS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IF(RS=RT) PC=PC-&gt;NEXT+OFFSET&lt;&lt;2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,10 +696,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC=RS ($31=PC+8)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RD=HI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,22 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RT=RS+(SIGNED_EX)(SIGNED_EX(OFFSET))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RT=RS+(UNSIGNED_EX)(SIGNED_EX(OFFSET))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF((OFFSET)[0]=0) RT=RS+(SIGNED)(SIGNED(OFFSET)*2)ELSE(如果地址不是2的倍数触发地址错例外)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IF((OFFSET)[0]=0) RT=RS+(UNSIGNED)(SIGNED(OFFSET)*2)ELSE(如果地址不是2的倍数触发地址错例外)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IF((OFFSET)[1:0]=00) RT=RS+(SIGNED_EX(OFFSET)*4) ELSE (地址不是4的倍数触发地址错例外)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,14 +728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IF((OFFSET)[0]=0) RS+(SIGNED_EX(OFFSET))=RT[15:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RS+(SIGNED_EX(OFFSET))=RT[8:0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ERET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -808,6 +793,50 @@
   </si>
   <si>
     <t>向协处理器0的寄存器存值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT=(SIGNED_EX)[RS+(SIGNED_EX(OFFSET))]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RT=(UNSIGNED_EX)[RS+(SIGNED_EX(OFFSET))]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF((OFFSET)[0]=0) (SIGNED)[RT=RS+(SIGNED(OFFSET)*2)]ELSE(如果地址不是2的倍数触发地址错例外)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF((OFFSET)[0]=0) (UNSIGNED)[RT=RS+(SIGNED(OFFSET)*2)]ELSE(如果地址不是2的倍数触发地址错例外)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD=RT&lt;&lt;RS[4:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD=RT&gt;&gt;&gt;RS[4:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RD=RT&gt;&gt;RS[4:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHAMT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC=RS (RD=PC+8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[RS+(SIGNED_EX(OFFSET))]=RT[7:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IF((OFFSET)[0]=0) [RS+(SIGNED_EX(OFFSET))]=RT[15:0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -871,13 +900,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -892,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -941,6 +984,18 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,16 +1342,16 @@
       <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="14.625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.640625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.640625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -1313,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -1330,7 +1385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1353,7 +1408,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -1376,10 +1431,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G7" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
@@ -1390,7 +1445,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -1408,24 +1463,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="103.875" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="9"/>
+    <col min="1" max="1" width="13.640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.640625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="103.85546875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
@@ -1459,7 +1514,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1476,10 +1531,10 @@
         <v>89</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1496,10 +1551,10 @@
         <v>89</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1516,10 +1571,10 @@
         <v>89</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1536,10 +1591,10 @@
         <v>89</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1556,10 +1611,10 @@
         <v>89</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1576,10 +1631,10 @@
         <v>89</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1596,10 +1651,10 @@
         <v>89</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1616,10 +1671,10 @@
         <v>89</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1694,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1714,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1734,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1754,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1719,7 +1774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
@@ -1739,7 +1794,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
@@ -1759,7 +1814,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
@@ -1779,47 +1834,47 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="F19" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A21" s="9" t="s">
         <v>98</v>
       </c>
@@ -1836,10 +1891,10 @@
         <v>134</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -1856,10 +1911,10 @@
         <v>134</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A23" s="9" t="s">
         <v>102</v>
       </c>
@@ -1876,10 +1931,10 @@
         <v>134</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A24" s="9" t="s">
         <v>103</v>
       </c>
@@ -1896,10 +1951,10 @@
         <v>134</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A25" s="9" t="s">
         <v>104</v>
       </c>
@@ -1916,10 +1971,10 @@
         <v>134</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A26" s="9" t="s">
         <v>106</v>
       </c>
@@ -1936,7 +1991,7 @@
         <v>134</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1945,6 +2000,7 @@
   <ignoredErrors>
     <ignoredError sqref="A1 A12:B17 A3:B3 A27 E1 A4:B10 B25:B26 B18:B24 C18 D21:D26 A11:B11" numberStoredAsText="1"/>
   </ignoredErrors>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1952,21 +2008,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3E7441-DE23-4CD8-AB29-7423F6E5C2F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="19.35546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="50.640625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -1983,13 +2039,13 @@
         <v>40</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>47</v>
+        <v>203</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2012,7 +2068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2038,7 +2094,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2120,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2090,7 +2146,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -2116,7 +2172,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -2142,7 +2198,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -2168,7 +2224,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
@@ -2194,7 +2250,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -2220,7 +2276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
@@ -2246,7 +2302,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -2272,7 +2328,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2298,7 +2354,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
@@ -2324,7 +2380,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
@@ -2350,7 +2406,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -2376,7 +2432,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -2399,10 +2455,10 @@
         <v>74</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -2425,10 +2481,10 @@
         <v>78</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
@@ -2451,10 +2507,10 @@
         <v>82</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -2477,10 +2533,10 @@
         <v>84</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2503,10 +2559,10 @@
         <v>86</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -2529,10 +2585,10 @@
         <v>88</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
@@ -2555,10 +2611,10 @@
         <v>115</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -2581,10 +2637,10 @@
         <v>117</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2607,10 +2663,10 @@
         <v>119</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
@@ -2633,10 +2689,10 @@
         <v>123</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -2659,10 +2715,10 @@
         <v>124</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>122</v>
       </c>
@@ -2685,10 +2741,10 @@
         <v>125</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>126</v>
       </c>
@@ -2711,10 +2767,10 @@
         <v>131</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>132</v>
       </c>
@@ -2737,7 +2793,7 @@
         <v>133</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2754,20 +2810,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2061F7BB-316E-4D97-9D8B-820F456EEB61}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="10.640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.640625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2778,7 +2834,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2789,7 +2845,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -2800,10 +2856,10 @@
         <v>110</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
@@ -2814,7 +2870,7 @@
         <v>110</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2834,33 +2890,33 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.75" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="5" width="12.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="16"/>
+    <col min="1" max="5" width="12.640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32.35546875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.640625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="26.140625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>119</v>
@@ -2875,32 +2931,32 @@
         <v>11000</v>
       </c>
       <c r="F4" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>119</v>
@@ -2915,24 +2971,24 @@
         <v>40</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="16" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>39</v>
@@ -2941,13 +2997,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Mips_指令格式.xlsx
+++ b/Mips_指令格式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0_VerilogHDL\My_CPU\My_CPU_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\mips2\mips2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CCC3E-74A2-40D9-A508-38DBE897D8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D60CD2-C175-44A1-854A-BA46C874DA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令格式" sheetId="1" r:id="rId1"/>
@@ -23,31 +23,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Dnsa Assad</author>
-  </authors>
-  <commentList>
-    <comment ref="A19" authorId="0" shapeId="0" xr:uid="{DFD18E23-E629-4765-8705-294D7E4A8CF3}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>I的译码形式R的处理方式</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="207">
   <si>
@@ -844,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -898,14 +873,6 @@
       <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1342,16 +1309,16 @@
       <selection activeCell="G5" sqref="G5:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="14.640625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
+    <col min="3" max="5" width="14.625" style="4" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
@@ -1368,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>90</v>
       </c>
@@ -1385,7 +1352,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
@@ -1408,7 +1375,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>50</v>
       </c>
@@ -1431,10 +1398,10 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="G7" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>109</v>
       </c>
@@ -1445,7 +1412,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>111</v>
       </c>
@@ -1463,24 +1430,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="10.640625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="103.85546875" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="13.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="103.875" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>90</v>
       </c>
@@ -1514,7 +1481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1534,7 +1501,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -1554,7 +1521,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1574,7 +1541,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1594,7 +1561,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1614,7 +1581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1601,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1621,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1674,7 +1641,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1694,7 +1661,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1714,7 +1681,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1734,7 +1701,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1754,7 +1721,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1774,7 +1741,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
@@ -1794,7 +1761,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
@@ -1814,7 +1781,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1801,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
         <v>94</v>
       </c>
@@ -1854,7 +1821,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
         <v>95</v>
       </c>
@@ -1874,7 +1841,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>98</v>
       </c>
@@ -1894,7 +1861,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>101</v>
       </c>
@@ -1914,7 +1881,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>102</v>
       </c>
@@ -1934,7 +1901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>103</v>
       </c>
@@ -1954,7 +1921,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>104</v>
       </c>
@@ -1974,7 +1941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>106</v>
       </c>
@@ -2000,7 +1967,6 @@
   <ignoredErrors>
     <ignoredError sqref="A1 A12:B17 A3:B3 A27 E1 A4:B10 B25:B26 B18:B24 C18 D21:D26 A11:B11" numberStoredAsText="1"/>
   </ignoredErrors>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2008,21 +1974,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD3E7441-DE23-4CD8-AB29-7423F6E5C2F7}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.35546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="10.640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.640625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="19.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
+    <col min="3" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>42</v>
       </c>
@@ -2045,7 +2011,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
@@ -2068,7 +2034,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2094,7 +2060,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -2120,7 +2086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>54</v>
       </c>
@@ -2146,7 +2112,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -2172,7 +2138,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>56</v>
       </c>
@@ -2198,7 +2164,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -2224,7 +2190,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>58</v>
       </c>
@@ -2250,7 +2216,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>60</v>
       </c>
@@ -2276,7 +2242,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
@@ -2302,7 +2268,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>63</v>
       </c>
@@ -2328,7 +2294,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>65</v>
       </c>
@@ -2354,7 +2320,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>67</v>
       </c>
@@ -2380,7 +2346,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>69</v>
       </c>
@@ -2406,7 +2372,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
@@ -2432,7 +2398,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>73</v>
       </c>
@@ -2458,7 +2424,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -2484,7 +2450,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>81</v>
       </c>
@@ -2510,7 +2476,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>83</v>
       </c>
@@ -2536,7 +2502,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -2562,7 +2528,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>87</v>
       </c>
@@ -2588,7 +2554,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
@@ -2614,7 +2580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
@@ -2640,7 +2606,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2666,7 +2632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>120</v>
       </c>
@@ -2692,7 +2658,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>121</v>
       </c>
@@ -2718,7 +2684,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
         <v>122</v>
       </c>
@@ -2744,7 +2710,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>126</v>
       </c>
@@ -2770,7 +2736,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>132</v>
       </c>
@@ -2810,20 +2776,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2061F7BB-316E-4D97-9D8B-820F456EEB61}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="26.640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -2834,7 +2800,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>111</v>
       </c>
@@ -2845,7 +2811,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>109</v>
       </c>
@@ -2859,7 +2825,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
@@ -2887,20 +2853,20 @@
   <dimension ref="A3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="19.75" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="12.640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="32.35546875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.640625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="30.640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="5" width="12.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="16"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
@@ -2914,7 +2880,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>179</v>
       </c>
@@ -2934,7 +2900,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="16" t="s">
         <v>187</v>
       </c>
@@ -2954,7 +2920,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>183</v>
       </c>
@@ -2980,7 +2946,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>193</v>
       </c>

--- a/Mips_指令格式.xlsx
+++ b/Mips_指令格式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\mips2\mips2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D60CD2-C175-44A1-854A-BA46C874DA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B62AC94-B592-4384-88F4-0FADC5A442E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
     <sheet name="R-型指令" sheetId="3" r:id="rId3"/>
     <sheet name="J-型指令" sheetId="4" r:id="rId4"/>
     <sheet name="特权指令" sheetId="5" r:id="rId5"/>
+    <sheet name="编码格式" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="239">
   <si>
     <t>I-TY</t>
   </si>
@@ -812,6 +813,134 @@
   </si>
   <si>
     <t>IF((OFFSET)[0]=0) [RS+(SIGNED_EX(OFFSET))]=RT[15:0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低16位左移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的寄存器是Rt还是rd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是r还是I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12：11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16位有/无符号扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26位j拓展扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shmat扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu操作码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址是否分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg寄存器写信号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写到寄存器里的内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自alu运算结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是从内存中取出的数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是来自pc+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还是跳转的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alu的源2是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自rt还是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自立即数扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ram写允许</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -819,7 +948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,13 +972,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color rgb="FF7030A0"/>
-      <name val="Microsoft YaHei UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -862,8 +984,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color theme="9" tint="-0.499984740745262"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
@@ -871,12 +993,33 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF006100"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF9C0006"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF9C5700"/>
       <name val="Microsoft YaHei UI"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,8 +1028,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -899,18 +1051,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -919,54 +1077,66 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="2" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="3" builtinId="28" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1303,23 +1473,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G7"/>
+      <selection activeCell="A14" sqref="A14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="4" customWidth="1"/>
-    <col min="3" max="5" width="14.625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="12.625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.125" style="4"/>
+    <col min="1" max="1" width="16.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1336,7 +1506,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1353,7 +1523,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1368,47 +1538,47 @@
       <c r="E5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G7" s="15"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1423,6 +1593,8 @@
         <v>112</v>
       </c>
     </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1434,21 +1606,21 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="103.875" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="9"/>
+    <col min="6" max="6" width="103.875" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1465,7 +1637,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1481,483 +1653,483 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="15" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="C5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="15" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="15" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="C8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="15" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="17" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="C13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="C15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="17" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="17" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="17" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="C19" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="17" t="s">
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="C22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="15" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="C23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="15" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="C24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="15" t="s">
         <v>167</v>
       </c>
     </row>
@@ -1975,21 +2147,21 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A17" sqref="A17:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="50.625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.125" style="4"/>
+    <col min="7" max="7" width="12.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="50.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2004,761 +2176,761 @@
       <c r="E1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="11">
+      <c r="F4" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="21">
         <v>100001</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="11">
+      <c r="F5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="21">
         <v>100010</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="17" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C6" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="11">
+      <c r="F6" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="21">
         <v>100011</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="17" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="18">
         <v>101010</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="18">
         <v>101011</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="C10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="C11" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="C12" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="17" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="F14" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="17" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="17" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="F16" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="F17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="C18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="15" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="C19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="C21" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="11" t="s">
+      <c r="F21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="15" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="C23" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="15" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="F24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="1" t="s">
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="F25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="15" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="C26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="11" t="s">
+      <c r="F26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="15" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="11" t="s">
+      <c r="C27" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="15" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="11" t="s">
+      <c r="C28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2777,7 +2949,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18.75" x14ac:dyDescent="0.35"/>
@@ -2785,7 +2957,7 @@
     <col min="1" max="1" width="10.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="26.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="50.625" style="10" customWidth="1"/>
     <col min="5" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
@@ -2811,31 +2983,31 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="20" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="20" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2858,117 +3030,117 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="12.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="32.375" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
-    <col min="8" max="8" width="30.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="26.125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.125" style="16"/>
+    <col min="1" max="5" width="12.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="32.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="30.625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="26.125" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="9.125" style="12"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="12">
         <v>1</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="12">
         <v>0</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <v>11000</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="12" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="12" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2979,4 +3151,142 @@
     <ignoredError sqref="B4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{306EF74D-075F-40B0-90A5-A2ACAFA2F4A9}">
+  <dimension ref="A15:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="20.625" style="13"/>
+    <col min="3" max="3" width="28.25" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.25" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="20.625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>